--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P20_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P20_trail13 Features.xlsx
@@ -5070,7 +5070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5081,29 +5081,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="18" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="21" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5124,115 +5122,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5249,72 +5237,66 @@
         <v>6.015382439822211e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.430314419936741</v>
+        <v>3.918336568781228e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>8.052861261720896</v>
+        <v>1.848391076702051e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.918336568781228e-07</v>
+        <v>0.1025144510092315</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.848391076702051e-06</v>
+        <v>0.2600757972754065</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.1025144510092315</v>
+        <v>0.07800308185858328</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2600757972754065</v>
+        <v>1.84631693777248</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.07800308185858328</v>
+        <v>1.898266222708615</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.827097060074278</v>
+        <v>4.02572178426373</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.898266222708615</v>
+        <v>6.588284418388842e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.02572178426373</v>
+        <v>222362466.0881851</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>6.588284418388842e-16</v>
+        <v>5.304534800387381e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>222362466.0881851</v>
+        <v>32.57581600340097</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5.304534800387381e-07</v>
+        <v>0.0001433153499419803</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>32.57581600340097</v>
+        <v>9.816983495054728</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001433153499419803</v>
+        <v>1.119932101648321</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.816983495054728</v>
+        <v>0.01381175385870428</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.119932101648321</v>
+        <v>2.816027677726324</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01381175385870428</v>
+        <v>0.9590949801779092</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.816027677726324</v>
+        <v>1.585279294034048</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9590949801779092</v>
+        <v>26</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.585279294034048</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2386960582089256</v>
       </c>
     </row>
@@ -5329,72 +5311,66 @@
         <v>4.871667143756835e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.85481588641572</v>
+        <v>3.123584304237026e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6.016473692230628</v>
+        <v>1.853839244106295e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.123584304237026e-07</v>
+        <v>0.09858513616833454</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.853839244106295e-06</v>
+        <v>0.2544245614298359</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.09858513616833454</v>
+        <v>0.07432161108126571</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2544245614298359</v>
+        <v>1.851634422557647</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.07432161108126571</v>
+        <v>1.910995790660681</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.83030415018221</v>
+        <v>4.047362529624735</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.910995790660681</v>
+        <v>6.51801929240924e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.047362529624735</v>
+        <v>227598762.708358</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>6.51801929240924e-16</v>
+        <v>5.210816900453089e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>227598762.708358</v>
+        <v>33.76412000234829</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>5.210816900453089e-07</v>
+        <v>0.0001506602604153934</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>33.76412000234829</v>
+        <v>9.516057649895743</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001506602604153934</v>
+        <v>1.243524845612444</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.516057649895743</v>
+        <v>0.01364309309453828</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.243524845612444</v>
+        <v>2.951878810741448</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01364309309453828</v>
+        <v>0.9597366901019015</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.951878810741448</v>
+        <v>1.560691386378346</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9597366901019015</v>
+        <v>26</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.560691386378346</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2624310739309994</v>
       </c>
     </row>
@@ -5409,72 +5385,66 @@
         <v>4.061838385796125e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.139151273266797</v>
+        <v>2.515590345971308e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>3.671685204533375</v>
+        <v>1.858100155313929e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.515590345971308e-07</v>
+        <v>0.0928975516108501</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.858100155313929e-06</v>
+        <v>0.2466954246797913</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0928975516108501</v>
+        <v>0.06937696986731923</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2466954246797913</v>
+        <v>1.857522241562158</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.06937696986731923</v>
+        <v>1.815016645585201</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.840929797350508</v>
+        <v>4.12117512644673</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.815016645585201</v>
+        <v>6.286627312716091e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.12117512644673</v>
+        <v>251683397.8936336</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>6.286627312716091e-16</v>
+        <v>4.745537871296269e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>251683397.8936336</v>
+        <v>39.8223469856347</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.745537871296269e-07</v>
+        <v>0.000192559859651187</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>39.8223469856347</v>
+        <v>9.443360859151101</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000192559859651187</v>
+        <v>1.75760095250575</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.443360859151101</v>
+        <v>0.01717192298882215</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.75760095250575</v>
+        <v>2.994022266677012</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01717192298882215</v>
+        <v>0.9585678034687403</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.994022266677012</v>
+        <v>1.560095409994416</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9585678034687403</v>
+        <v>26</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.560095409994416</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.3312418838160235</v>
       </c>
     </row>
@@ -5489,72 +5459,66 @@
         <v>3.515055278374384e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.4016773611688804</v>
+        <v>2.036524676040532e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1.487824692357988</v>
+        <v>1.861457851510766e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.036524676040532e-07</v>
+        <v>0.08470178417549272</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.861457851510766e-06</v>
+        <v>0.2334077268826214</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.08470178417549272</v>
+        <v>0.06155764199806516</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2334077268826214</v>
+        <v>1.856615037503198</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.06155764199806516</v>
+        <v>1.729959710237967</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.840648724467788</v>
+        <v>4.701620359225577</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.729959710237967</v>
+        <v>4.725956646905425e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.701620359225577</v>
+        <v>334539593.950671</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.725956646905425e-16</v>
+        <v>3.572298391007604e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>334539593.950671</v>
+        <v>52.89136609281225</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.572298391007604e-07</v>
+        <v>0.0002094139982436937</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>52.89136609281225</v>
+        <v>10.6408275639727</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002094139982436937</v>
+        <v>1.758301907449466</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.6408275639727</v>
+        <v>0.02371136301705032</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.758301907449466</v>
+        <v>3.090728921349972</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02371136301705032</v>
+        <v>0.9578117313104596</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.090728921349972</v>
+        <v>1.568755995781272</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9578117313104596</v>
+        <v>31</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.568755995781272</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.512205102809696</v>
       </c>
     </row>
@@ -5931,7 +5895,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.329366808364895</v>
+        <v>1.355528571313953</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.506796390465626</v>
@@ -6020,7 +5984,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.344222826003188</v>
+        <v>1.372096076416271</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.475749243535255</v>
@@ -6109,7 +6073,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.370245897151263</v>
+        <v>1.39868522734319</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.1358759582571</v>
@@ -6198,7 +6162,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.372353546245199</v>
+        <v>1.400614543928206</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.382459131927038</v>
@@ -6287,7 +6251,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.394973427909288</v>
+        <v>1.424241423660774</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.219369331906232</v>
@@ -6376,7 +6340,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.406265896795087</v>
+        <v>1.433620407543782</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.277497592394272</v>
@@ -6465,7 +6429,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.424709750521358</v>
+        <v>1.449588091163767</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.293587034320129</v>
@@ -6554,7 +6518,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.407156660965813</v>
+        <v>1.433158562682075</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.37300216639201</v>
@@ -6643,7 +6607,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.396727205726016</v>
+        <v>1.420664499047891</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.233808298140691</v>
@@ -6732,7 +6696,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.409189695732016</v>
+        <v>1.431952141638512</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.249275041509013</v>
@@ -6821,7 +6785,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.432375110649988</v>
+        <v>1.455385335540348</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.206110960061427</v>
@@ -6910,7 +6874,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.418972861190612</v>
+        <v>1.435282337606251</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.17618959467344</v>
@@ -6999,7 +6963,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.436520854051616</v>
+        <v>1.452972589932282</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.438239533911561</v>
@@ -7088,7 +7052,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.462229276219515</v>
+        <v>1.477581702330825</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.482331183800684</v>
@@ -7177,7 +7141,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.473774253081629</v>
+        <v>1.490009241571561</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.432404724207148</v>
@@ -7266,7 +7230,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.473361855145474</v>
+        <v>1.484663656043287</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.371746928017292</v>
@@ -7355,7 +7319,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.458272106867874</v>
+        <v>1.474680098089299</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.446021080520098</v>
@@ -7444,7 +7408,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.439344891923981</v>
+        <v>1.455679128532779</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.47430154193506</v>
@@ -7533,7 +7497,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.457749247812189</v>
+        <v>1.477781591541752</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.478567340824184</v>
@@ -7622,7 +7586,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.475882012833589</v>
+        <v>1.501192212775815</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.528339125161622</v>
@@ -7711,7 +7675,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.488082473197594</v>
+        <v>1.516427537024018</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.340310843799767</v>
@@ -7800,7 +7764,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.50104592277992</v>
+        <v>1.531866419334496</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.715613316368306</v>
@@ -7889,7 +7853,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.497460592728572</v>
+        <v>1.523727943057092</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.614090753916424</v>
@@ -7978,7 +7942,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.480213793756223</v>
+        <v>1.507751778592175</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.594128746587611</v>
@@ -8067,7 +8031,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.437386682006264</v>
+        <v>1.459455435451917</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.194356732309078</v>
@@ -8156,7 +8120,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.428829918624815</v>
+        <v>1.445560456483463</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.303091782161168</v>
@@ -8245,7 +8209,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.425688865406746</v>
+        <v>1.447253661429239</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.40594008212146</v>
@@ -8334,7 +8298,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.365126983416372</v>
+        <v>1.365425235757025</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.599377035192019</v>
@@ -8423,7 +8387,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.360382687874212</v>
+        <v>1.359658263827484</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.586529808971791</v>
@@ -8512,7 +8476,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.356391856623627</v>
+        <v>1.355422433164333</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.591393884479251</v>
@@ -8601,7 +8565,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.367195829899083</v>
+        <v>1.36500543293298</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.587578103620938</v>
@@ -8690,7 +8654,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.364426887146463</v>
+        <v>1.361137240384307</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.598166572090746</v>
@@ -8779,7 +8743,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.364795480971862</v>
+        <v>1.359621444875758</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.608898833879347</v>
@@ -8868,7 +8832,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.353935096269841</v>
+        <v>1.347832018123214</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.604230432364406</v>
@@ -8957,7 +8921,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.347257957396323</v>
+        <v>1.339958762224981</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.608283402636828</v>
@@ -9046,7 +9010,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.33051541021701</v>
+        <v>1.324057869726723</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.620255951900617</v>
@@ -9135,7 +9099,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.330775108734213</v>
+        <v>1.322082831312561</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.616211093816327</v>
@@ -9224,7 +9188,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.344470580401146</v>
+        <v>1.333023533127456</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.608549736430789</v>
@@ -9313,7 +9277,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.349185115455835</v>
+        <v>1.339235053559072</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.616155511403418</v>
@@ -9402,7 +9366,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.380986849595943</v>
+        <v>1.374905550992243</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.601518519338073</v>
@@ -9491,7 +9455,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.399837596001493</v>
+        <v>1.393261381662053</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.594352027678691</v>
@@ -9580,7 +9544,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.395271059690483</v>
+        <v>1.388206268756646</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.587317488100324</v>
@@ -9669,7 +9633,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.453990485201482</v>
+        <v>1.461346982582654</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.491299652453415</v>
@@ -9758,7 +9722,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.468607175074143</v>
+        <v>1.473444406214361</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.39646518623851</v>
@@ -9847,7 +9811,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.486317254196694</v>
+        <v>1.488540581619946</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.291394803567425</v>
@@ -9936,7 +9900,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.460501578324181</v>
+        <v>1.46171246998726</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.388377550791178</v>
@@ -10025,7 +9989,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.460168655753637</v>
+        <v>1.467830412945093</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.424967172072497</v>
@@ -10114,7 +10078,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.500123233507317</v>
+        <v>1.508245966183506</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.711971613924826</v>
@@ -10203,7 +10167,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.51283568194515</v>
+        <v>1.520434888890434</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.409826771947124</v>
@@ -10489,7 +10453,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.638716393209874</v>
+        <v>1.67242755534589</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.432537146500545</v>
@@ -10578,7 +10542,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.631162866876021</v>
+        <v>1.664181182758581</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.475853976592602</v>
@@ -10667,7 +10631,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.629573031244632</v>
+        <v>1.664549930286084</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.419650437980241</v>
@@ -10756,7 +10720,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.626638754101903</v>
+        <v>1.663554818719628</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.480665480860021</v>
@@ -10845,7 +10809,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.610140504662017</v>
+        <v>1.648731196263014</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.474451448049329</v>
@@ -10934,7 +10898,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.611907608548343</v>
+        <v>1.650597144120222</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.461685472963659</v>
@@ -11023,7 +10987,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.609815088029597</v>
+        <v>1.644026638677736</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.459910422825039</v>
@@ -11112,7 +11076,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.600163024436587</v>
+        <v>1.637127335814035</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.426579613981301</v>
@@ -11201,7 +11165,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.604471265112348</v>
+        <v>1.63368103172603</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.224791650772812</v>
@@ -11290,7 +11254,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.622817675942998</v>
+        <v>1.649715641176762</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.327376661578781</v>
@@ -11379,7 +11343,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.619023861687712</v>
+        <v>1.638692519983851</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.280640783857304</v>
@@ -11468,7 +11432,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.536171798237603</v>
+        <v>1.551783710227832</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.182364125708905</v>
@@ -11557,7 +11521,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.493379188973111</v>
+        <v>1.492772221885692</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.261339563458265</v>
@@ -11646,7 +11610,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.467627416175262</v>
+        <v>1.467755140617184</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.451162006297613</v>
@@ -11735,7 +11699,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.452528050892509</v>
+        <v>1.452197371055906</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.567438191961493</v>
@@ -11824,7 +11788,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.44284440630061</v>
+        <v>1.447272113183097</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.509350983887324</v>
@@ -11913,7 +11877,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.443594439429301</v>
+        <v>1.450710475273004</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.448601219523556</v>
@@ -12002,7 +11966,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.432379916546303</v>
+        <v>1.438089025186067</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.461044783658923</v>
@@ -12091,7 +12055,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.435749738798209</v>
+        <v>1.440122367186417</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.459755115227064</v>
@@ -12180,7 +12144,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.452409503064345</v>
+        <v>1.456746534470217</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.469938290484397</v>
@@ -12269,7 +12233,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.467407745293273</v>
+        <v>1.471957080647519</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.554805367354333</v>
@@ -12358,7 +12322,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.474644401630577</v>
+        <v>1.483319119505344</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.251491205863116</v>
@@ -12447,7 +12411,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.472383432373978</v>
+        <v>1.476298335775122</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.471526410065294</v>
@@ -12536,7 +12500,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.461721951589158</v>
+        <v>1.470319904749859</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.429868775306226</v>
@@ -12625,7 +12589,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.443242777067497</v>
+        <v>1.453510114015585</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.30241515125855</v>
@@ -12714,7 +12678,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.448698405215684</v>
+        <v>1.463353418178502</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.597694664461809</v>
@@ -12803,7 +12767,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.428660572023033</v>
+        <v>1.440541627424244</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.661469983812125</v>
@@ -12892,7 +12856,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.356052830859205</v>
+        <v>1.361254000932053</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.783523332995061</v>
@@ -12981,7 +12945,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.362945735691547</v>
+        <v>1.369064778800339</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.762127800778405</v>
@@ -13070,7 +13034,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.372975135681285</v>
+        <v>1.378274034108932</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.738374655194398</v>
@@ -13159,7 +13123,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.380311271410327</v>
+        <v>1.38100891200047</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.767590777081699</v>
@@ -13248,7 +13212,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.379719422367091</v>
+        <v>1.378460394741494</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.774858632207167</v>
@@ -13337,7 +13301,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.389756446354444</v>
+        <v>1.386243789829518</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.761536375286992</v>
@@ -13426,7 +13390,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.387885017314497</v>
+        <v>1.377238045013375</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.757725393758609</v>
@@ -13515,7 +13479,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.392163351066201</v>
+        <v>1.370784286197899</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.770919892660965</v>
@@ -13604,7 +13568,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.390730444943035</v>
+        <v>1.367743918070798</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.774230793886876</v>
@@ -13693,7 +13657,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.393816852133359</v>
+        <v>1.365643561987796</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.793918366628147</v>
@@ -13782,7 +13746,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.392758479398037</v>
+        <v>1.364041185024757</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.80502188129184</v>
@@ -13871,7 +13835,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.405901469429088</v>
+        <v>1.373959110307371</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.791084044396871</v>
@@ -13960,7 +13924,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.415184250998848</v>
+        <v>1.376860099741309</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.756935106184126</v>
@@ -14049,7 +14013,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.43193328304004</v>
+        <v>1.393889883683256</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.725852050133329</v>
@@ -14138,7 +14102,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.439659098487052</v>
+        <v>1.399634782235971</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.726552136167848</v>
@@ -14227,7 +14191,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.536436614981201</v>
+        <v>1.474382374577953</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.54657321373318</v>
@@ -14316,7 +14280,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.552474156496621</v>
+        <v>1.484780245203829</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.628739846943343</v>
@@ -14405,7 +14369,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.554943773874687</v>
+        <v>1.489213746335526</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.611839500478491</v>
@@ -14494,7 +14458,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.549094523236805</v>
+        <v>1.48539278549265</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.737223590646154</v>
@@ -14583,7 +14547,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.564489402678018</v>
+        <v>1.503115221668262</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.835342998569628</v>
@@ -14672,7 +14636,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.564922912846323</v>
+        <v>1.503104614762673</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.691696791854438</v>
@@ -14761,7 +14725,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.563429096385299</v>
+        <v>1.513356466286927</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.716448116287202</v>
@@ -15047,7 +15011,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.411889709500385</v>
+        <v>1.448587028890861</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.185880398939783</v>
@@ -15136,7 +15100,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.417233542027188</v>
+        <v>1.453393632562055</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.187410854847198</v>
@@ -15225,7 +15189,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.419370599109899</v>
+        <v>1.454593138647225</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.137160891908257</v>
@@ -15314,7 +15278,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.421159171382699</v>
+        <v>1.45660557634699</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.196888297952099</v>
@@ -15403,7 +15367,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.420036484864375</v>
+        <v>1.455356177206263</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.186073416602355</v>
@@ -15492,7 +15456,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.42282373310638</v>
+        <v>1.457130236675365</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.19810018965127</v>
@@ -15581,7 +15545,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.422395465961086</v>
+        <v>1.454001877426411</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.182681808264908</v>
@@ -15670,7 +15634,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.42667844932773</v>
+        <v>1.458203339594682</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.179768670104351</v>
@@ -15759,7 +15723,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.431382165960681</v>
+        <v>1.463785903420884</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.960578041363761</v>
@@ -15848,7 +15812,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.490583171243171</v>
+        <v>1.524546601279774</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.01521831382988</v>
@@ -15937,7 +15901,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.524700138166226</v>
+        <v>1.561101118835772</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.966230933154528</v>
@@ -16026,7 +15990,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.472071585906257</v>
+        <v>1.501719983417362</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.90224485152853</v>
@@ -16115,7 +16079,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.52366508861087</v>
+        <v>1.554506377156576</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.024693890404326</v>
@@ -16204,7 +16168,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.622475610539409</v>
+        <v>1.641038030544974</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.065698919032899</v>
@@ -16293,7 +16257,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.62446919608077</v>
+        <v>1.636340901719971</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.039011033132752</v>
@@ -16382,7 +16346,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.641216448512791</v>
+        <v>1.643305874426124</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.940232232832907</v>
@@ -16471,7 +16435,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.631605854579827</v>
+        <v>1.636060367498713</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.040928303504865</v>
@@ -16560,7 +16524,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.60357742431757</v>
+        <v>1.60621855128874</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.86347971303078</v>
@@ -16649,7 +16613,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.590088129111832</v>
+        <v>1.592884108808219</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.977165747536607</v>
@@ -16738,7 +16702,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.603131589246844</v>
+        <v>1.598483591967231</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.750806698798136</v>
@@ -16827,7 +16791,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.590545280190957</v>
+        <v>1.591079495516454</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.927284962352805</v>
@@ -16916,7 +16880,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.589430331792848</v>
+        <v>1.5953951030937</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.863644559048707</v>
@@ -17005,7 +16969,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.570871961612833</v>
+        <v>1.576323590561119</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.909458197630911</v>
@@ -17094,7 +17058,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.553663106208598</v>
+        <v>1.557323090150571</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.542791817611957</v>
@@ -17183,7 +17147,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.440490049536997</v>
+        <v>1.444888663169448</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.974813419381964</v>
@@ -17272,7 +17236,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.437382614838197</v>
+        <v>1.444133380073526</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.025517163148928</v>
@@ -17361,7 +17325,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.414054540739978</v>
+        <v>1.41893105062064</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.05216773781329</v>
@@ -17450,7 +17414,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.297143380948967</v>
+        <v>1.305466798187311</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.609155489986124</v>
@@ -17539,7 +17503,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.287812205517249</v>
+        <v>1.297400534652901</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.605253346995421</v>
@@ -17628,7 +17592,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.290436041664527</v>
+        <v>1.302395540323251</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.607671640236384</v>
@@ -17717,7 +17681,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.294872587633334</v>
+        <v>1.307053763956438</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.608637897394443</v>
@@ -17806,7 +17770,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.295382025679311</v>
+        <v>1.307170313648246</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.618187892681796</v>
@@ -17895,7 +17859,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.306266952024737</v>
+        <v>1.320247031376001</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.619536918918131</v>
@@ -17984,7 +17948,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.307989444753844</v>
+        <v>1.321182599255319</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.613730847748223</v>
@@ -18073,7 +18037,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.312685268023855</v>
+        <v>1.323967463228712</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.617033433423677</v>
@@ -18162,7 +18126,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.312169936682975</v>
+        <v>1.325017419084485</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.620830774569339</v>
@@ -18251,7 +18215,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.312644938935811</v>
+        <v>1.325363003557519</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.624023082876714</v>
@@ -18340,7 +18304,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.320127949625132</v>
+        <v>1.332409188334607</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.62934907440135</v>
@@ -18429,7 +18393,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.328104291222622</v>
+        <v>1.339431938029248</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.634378524077246</v>
@@ -18518,7 +18482,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.362870854375026</v>
+        <v>1.378814114701735</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.606631338568379</v>
@@ -18607,7 +18571,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.370107823022544</v>
+        <v>1.385529921817933</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.569312106944411</v>
@@ -18696,7 +18660,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.38118790444043</v>
+        <v>1.395131932133691</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.615532448828186</v>
@@ -18785,7 +18749,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.590745039295101</v>
+        <v>1.580260794799627</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.375522661992902</v>
@@ -18874,7 +18838,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.610607681002002</v>
+        <v>1.593175378289822</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.811732952255288</v>
@@ -18963,7 +18927,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.574361160073456</v>
+        <v>1.562665484319624</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.641415798984653</v>
@@ -19052,7 +19016,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.56419416007514</v>
+        <v>1.552508509490223</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.805293371304557</v>
@@ -19141,7 +19105,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.569276328914532</v>
+        <v>1.562458723716509</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.660688482195441</v>
@@ -19230,7 +19194,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.575908393263654</v>
+        <v>1.564058983750444</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.605272328589878</v>
@@ -19319,7 +19283,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.574052731262471</v>
+        <v>1.563450741304592</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.733590625457424</v>
@@ -19605,7 +19569,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.567484800748432</v>
+        <v>1.600493136683071</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.051018257253196</v>
@@ -19694,7 +19658,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.573725410878455</v>
+        <v>1.608592698480134</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.042386309391249</v>
@@ -19783,7 +19747,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.593297238006645</v>
+        <v>1.624255064986</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.114945693908883</v>
@@ -19872,7 +19836,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.597603949678221</v>
+        <v>1.62937889695226</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.047511767415789</v>
@@ -19961,7 +19925,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.602048065130563</v>
+        <v>1.633492854843459</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.013472385635272</v>
@@ -20050,7 +20014,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.605045884640439</v>
+        <v>1.634920302541029</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.034805694595056</v>
@@ -20139,7 +20103,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.617019475867286</v>
+        <v>1.642314644619454</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.009810890017956</v>
@@ -20228,7 +20192,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.605742458740227</v>
+        <v>1.634336471657358</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.031632025201569</v>
@@ -20317,7 +20281,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.613561994706389</v>
+        <v>1.63151946253264</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.082725661783418</v>
@@ -20406,7 +20370,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.630764756489097</v>
+        <v>1.647194664714357</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.127308201230921</v>
@@ -20495,7 +20459,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.642576438650999</v>
+        <v>1.652231175436121</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.256409643681262</v>
@@ -20584,7 +20548,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.591206583774648</v>
+        <v>1.589722657348075</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.912299131236462</v>
@@ -20673,7 +20637,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.531994002859725</v>
+        <v>1.526411028540338</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.37485716098215</v>
@@ -20762,7 +20726,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.554869274640072</v>
+        <v>1.54264875959159</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.636688938424942</v>
@@ -20851,7 +20815,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.540918433747095</v>
+        <v>1.53135356385994</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.707911886929855</v>
@@ -20940,7 +20904,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.538894180259349</v>
+        <v>1.526133217056308</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.905473304442369</v>
@@ -21029,7 +20993,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.536460011618369</v>
+        <v>1.526511116292601</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.585714586324669</v>
@@ -21118,7 +21082,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.516093446486003</v>
+        <v>1.512270379777643</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.599362447895947</v>
@@ -21207,7 +21171,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.516364092643003</v>
+        <v>1.50871807631321</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.63954818034807</v>
@@ -21296,7 +21260,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.536162446723501</v>
+        <v>1.527057544384686</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.820388455570963</v>
@@ -21385,7 +21349,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.548007830190369</v>
+        <v>1.538160473690475</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.563560525952045</v>
@@ -21474,7 +21438,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.556784080071294</v>
+        <v>1.550557894698682</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.823101207560778</v>
@@ -21563,7 +21527,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.556106211504216</v>
+        <v>1.547668188660647</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.89009969868853</v>
@@ -21652,7 +21616,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.551889381342765</v>
+        <v>1.551086887602066</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.784273741150785</v>
@@ -21741,7 +21705,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.549719676172373</v>
+        <v>1.552444783963028</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.599391181255726</v>
@@ -21830,7 +21794,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.522733934798536</v>
+        <v>1.53203973769476</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.670547842870754</v>
@@ -21919,7 +21883,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.527984944701196</v>
+        <v>1.536920691811785</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.728105759284379</v>
@@ -22008,7 +21972,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.500924640272347</v>
+        <v>1.508766887338139</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.056678660646616</v>
@@ -22097,7 +22061,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.500170269653265</v>
+        <v>1.508426157856839</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.073512737042009</v>
@@ -22186,7 +22150,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.500489915652915</v>
+        <v>1.50770261107703</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.109592496038965</v>
@@ -22275,7 +22239,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.50824759746888</v>
+        <v>1.510703186008603</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.123585608663752</v>
@@ -22364,7 +22328,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.498084257585527</v>
+        <v>1.500201762159758</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.041788605632167</v>
@@ -22453,7 +22417,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.503320577931488</v>
+        <v>1.502290796742479</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.047424873116674</v>
@@ -22542,7 +22506,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.493718504303464</v>
+        <v>1.493223828406545</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.083432383695432</v>
@@ -22631,7 +22595,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.486008130607575</v>
+        <v>1.486860666411086</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.059375571938061</v>
@@ -22720,7 +22684,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.475128624598487</v>
+        <v>1.476557692432803</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.097569501151322</v>
@@ -22809,7 +22773,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.477858301126125</v>
+        <v>1.477050269837035</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.094423288157297</v>
@@ -22898,7 +22862,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.488125773954773</v>
+        <v>1.483926341517569</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.080438461581698</v>
@@ -22987,7 +22951,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.4811658009331</v>
+        <v>1.479029010442609</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.082512590556409</v>
@@ -23076,7 +23040,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.493666983878373</v>
+        <v>1.486880002926493</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.091059248037407</v>
@@ -23165,7 +23129,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.532264056317086</v>
+        <v>1.521605145511894</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.122515315069941</v>
@@ -23254,7 +23218,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.525222134010176</v>
+        <v>1.518303131239751</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.09702315668687</v>
@@ -23343,7 +23307,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.548237517416371</v>
+        <v>1.537349797922374</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.8208917928119</v>
@@ -23432,7 +23396,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.558097588260231</v>
+        <v>1.549022271432556</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.074597300800927</v>
@@ -23521,7 +23485,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.570350484935171</v>
+        <v>1.561735724545915</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.699220983793755</v>
@@ -23610,7 +23574,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.564506431008296</v>
+        <v>1.555181097165808</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.655414380352073</v>
@@ -23699,7 +23663,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.567546234939369</v>
+        <v>1.562692977725716</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.820871848370916</v>
@@ -23788,7 +23752,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.598046948108325</v>
+        <v>1.589266476353972</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.896972242565385</v>
@@ -23877,7 +23841,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.609500395833625</v>
+        <v>1.599276407527038</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.931991442492467</v>
@@ -24163,7 +24127,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.491143164220821</v>
+        <v>1.53203518693546</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.965444132688049</v>
@@ -24252,7 +24216,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.488499180933371</v>
+        <v>1.532063629903075</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.966462461550797</v>
@@ -24341,7 +24305,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.488968031953082</v>
+        <v>1.533217753863809</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.976943523398165</v>
@@ -24430,7 +24394,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.486038634417519</v>
+        <v>1.528889974650279</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.964449047176365</v>
@@ -24519,7 +24483,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.474734291353105</v>
+        <v>1.518123543175553</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.96053959566824</v>
@@ -24608,7 +24572,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.478606626256714</v>
+        <v>1.522592884755492</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.951183774998413</v>
@@ -24697,7 +24661,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.481481026583024</v>
+        <v>1.523390800151044</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.939920107105665</v>
@@ -24786,7 +24750,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.487381191477257</v>
+        <v>1.527915288920408</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.968460344096407</v>
@@ -24875,7 +24839,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.476854247162945</v>
+        <v>1.511682038507336</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.046566241005028</v>
@@ -24964,7 +24928,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.50803984255836</v>
+        <v>1.538588414194178</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.935780481349368</v>
@@ -25053,7 +25017,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.503831917522149</v>
+        <v>1.530859413407956</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.882048849902306</v>
@@ -25142,7 +25106,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.451700462124843</v>
+        <v>1.464756906947712</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.862883951065241</v>
@@ -25231,7 +25195,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.452259475211523</v>
+        <v>1.438675920819114</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.103820274887021</v>
@@ -25320,7 +25284,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.453357427271232</v>
+        <v>1.439762464220963</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.375049576539197</v>
@@ -25409,7 +25373,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.445564949152412</v>
+        <v>1.429501443187949</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.423229223145186</v>
@@ -25498,7 +25462,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.45289757645284</v>
+        <v>1.433629078447979</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.265295479080284</v>
@@ -25587,7 +25551,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.450514678272195</v>
+        <v>1.428430379049541</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.456230139111505</v>
@@ -25676,7 +25640,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.441576153135251</v>
+        <v>1.416858821039846</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.47400473206822</v>
@@ -25765,7 +25729,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.451791420976881</v>
+        <v>1.42568219433521</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.375659236977102</v>
@@ -25854,7 +25818,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.472925201369117</v>
+        <v>1.445635059210691</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.337496301483784</v>
@@ -25943,7 +25907,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.492490127641666</v>
+        <v>1.46734533137855</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.443618319526055</v>
@@ -26032,7 +25996,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.494498775182024</v>
+        <v>1.47152909080346</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.444490336837726</v>
@@ -26121,7 +26085,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.49391300959023</v>
+        <v>1.47221374752787</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.350877912905741</v>
@@ -26210,7 +26174,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.480873405271219</v>
+        <v>1.459839147238643</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.410444280422969</v>
@@ -26299,7 +26263,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.464175582963504</v>
+        <v>1.450094969716184</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.310803838591069</v>
@@ -26388,7 +26352,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.45956814945687</v>
+        <v>1.448576465926259</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.478724087598023</v>
@@ -26477,7 +26441,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.450509287159674</v>
+        <v>1.438976825975998</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.452874336449408</v>
@@ -26566,7 +26530,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.425668108536265</v>
+        <v>1.419271451057333</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.993134857700337</v>
@@ -26655,7 +26619,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.445621456778363</v>
+        <v>1.438418829630765</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.979819658107377</v>
@@ -26744,7 +26708,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.453331048346497</v>
+        <v>1.446567807187471</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.98010114312438</v>
@@ -26833,7 +26797,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.452457790997347</v>
+        <v>1.44505670776699</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.946964167730596</v>
@@ -26922,7 +26886,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.45212365802121</v>
+        <v>1.44631863039582</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.952523923756651</v>
@@ -27011,7 +26975,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.464274602244998</v>
+        <v>1.455866204731103</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.947313463202024</v>
@@ -27100,7 +27064,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.454670696568799</v>
+        <v>1.449878657914888</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.925900875090278</v>
@@ -27189,7 +27153,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.448881381354649</v>
+        <v>1.435296846123461</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.95398053152315</v>
@@ -27278,7 +27242,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.443365204107145</v>
+        <v>1.428279816566056</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.971999788638207</v>
@@ -27367,7 +27331,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.439446373356891</v>
+        <v>1.423678652111321</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.979122240785499</v>
@@ -27456,7 +27420,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.427249197674665</v>
+        <v>1.410799102708456</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.000085964090202</v>
@@ -27545,7 +27509,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.445776065812229</v>
+        <v>1.425317070272024</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.944120140528749</v>
@@ -27634,7 +27598,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.463995128721366</v>
+        <v>1.433556154152084</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.970245534645499</v>
@@ -27723,7 +27687,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.482362277295093</v>
+        <v>1.448379493958154</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.980160766846679</v>
@@ -27812,7 +27776,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.480920305531469</v>
+        <v>1.443731175351712</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.962095418742544</v>
@@ -27901,7 +27865,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.511638515655566</v>
+        <v>1.462521188581994</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.83822724040439</v>
@@ -27990,7 +27954,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.520060090508288</v>
+        <v>1.471776028456617</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.837123036843714</v>
@@ -28079,7 +28043,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.523574742712354</v>
+        <v>1.476584918993543</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.916125738225786</v>
@@ -28168,7 +28132,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.507426658027468</v>
+        <v>1.461876984306265</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.791934893567634</v>
@@ -28257,7 +28221,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.513065573049942</v>
+        <v>1.471143375825021</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.90944856311241</v>
@@ -28346,7 +28310,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.51097109810552</v>
+        <v>1.465774897921961</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.714600917476397</v>
@@ -28435,7 +28399,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.500528574704741</v>
+        <v>1.463157386769138</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.606130094137978</v>
@@ -28721,7 +28685,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.386528309922663</v>
+        <v>1.418091569210768</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.30432041668408</v>
@@ -28810,7 +28774,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.411022398172123</v>
+        <v>1.442610180085911</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.319337677551125</v>
@@ -28899,7 +28863,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.446042141888816</v>
+        <v>1.477181159687682</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.236019259910175</v>
@@ -28988,7 +28952,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.454370920434294</v>
+        <v>1.483126412690773</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.200538155692182</v>
@@ -29077,7 +29041,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.492457310711682</v>
+        <v>1.521681704939731</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.118541255094012</v>
@@ -29166,7 +29130,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.501786416420634</v>
+        <v>1.527776746000511</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.124179280675776</v>
@@ -29255,7 +29219,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.533897337762638</v>
+        <v>1.554759969343026</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.094237770340501</v>
@@ -29344,7 +29308,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.511996950192254</v>
+        <v>1.53675270650599</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.203979509110652</v>
@@ -29433,7 +29397,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.504076470373026</v>
+        <v>1.525749631132951</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.671707408463481</v>
@@ -29522,7 +29486,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.503305592859764</v>
+        <v>1.523269105974462</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.672170837204967</v>
@@ -29611,7 +29575,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.506147462420916</v>
+        <v>1.522072857557772</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.640918173949158</v>
@@ -29700,7 +29664,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.506500782338648</v>
+        <v>1.513282705883439</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.359569357591645</v>
@@ -29789,7 +29753,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.487079009271362</v>
+        <v>1.49616798186246</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.398162125010525</v>
@@ -29878,7 +29842,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.493509469631622</v>
+        <v>1.501812403974018</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.275845748389722</v>
@@ -29967,7 +29931,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.491384781952109</v>
+        <v>1.501662222227111</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.322707672612922</v>
@@ -30056,7 +30020,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.478887411393425</v>
+        <v>1.479750540042218</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.408785460889807</v>
@@ -30145,7 +30109,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.457545305684139</v>
+        <v>1.467931700351885</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.364574137410512</v>
@@ -30234,7 +30198,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.439556494349748</v>
+        <v>1.45218876300363</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.375884601192338</v>
@@ -30323,7 +30287,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.452849785442233</v>
+        <v>1.467963864170223</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.334726562183666</v>
@@ -30412,7 +30376,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.472542003942913</v>
+        <v>1.491559720373748</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.307794061363679</v>
@@ -30501,7 +30465,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.495049110308511</v>
+        <v>1.514436991443888</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.234671228516167</v>
@@ -30590,7 +30554,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.505547578995048</v>
+        <v>1.524064056657096</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.420809971269048</v>
@@ -30679,7 +30643,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.505231148401886</v>
+        <v>1.517475626697341</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.364606606237004</v>
@@ -30768,7 +30732,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.494666104869069</v>
+        <v>1.514019273113296</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.314226672494377</v>
@@ -30857,7 +30821,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.50555055787559</v>
+        <v>1.523231921396599</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.247632157170892</v>
@@ -30946,7 +30910,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.485637346403658</v>
+        <v>1.50308294716734</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.28462761852013</v>
@@ -31035,7 +30999,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.476224625915418</v>
+        <v>1.499337210004955</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.455491130096578</v>
@@ -31124,7 +31088,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.444678245661804</v>
+        <v>1.464850132207191</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.230435099059426</v>
@@ -31213,7 +31177,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.440916482369679</v>
+        <v>1.458742083628151</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.245486268724286</v>
@@ -31302,7 +31266,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.440718426314358</v>
+        <v>1.458296586652445</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.292241678472847</v>
@@ -31391,7 +31355,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.463645140706105</v>
+        <v>1.48260372475459</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.213000993350883</v>
@@ -31480,7 +31444,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.449732707437805</v>
+        <v>1.467152013873088</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.276244238581247</v>
@@ -31569,7 +31533,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.446597868063804</v>
+        <v>1.45836286638041</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.2322677820782</v>
@@ -31658,7 +31622,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.421458138170609</v>
+        <v>1.430440051079474</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.328937792925799</v>
@@ -31747,7 +31711,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.406646082926922</v>
+        <v>1.415668868848163</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.327249504192866</v>
@@ -31836,7 +31800,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.381640920176412</v>
+        <v>1.39230492769879</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.367407017799009</v>
@@ -31925,7 +31889,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.3837020313057</v>
+        <v>1.392527599303196</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.363788978358184</v>
@@ -32014,7 +31978,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.394349806863745</v>
+        <v>1.398857202892373</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.259229634704361</v>
@@ -32103,7 +32067,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.383374800053012</v>
+        <v>1.391085042975493</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.323454976243633</v>
@@ -32192,7 +32156,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.391541234824965</v>
+        <v>1.402853670201545</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.344585316354678</v>
@@ -32281,7 +32245,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.417866500554871</v>
+        <v>1.429626678083531</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.229674717361713</v>
@@ -32370,7 +32334,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.422883472462793</v>
+        <v>1.436764563195251</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.31147648943154</v>
@@ -32459,7 +32423,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.441120183293901</v>
+        <v>1.454686575860512</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.379751293633075</v>
@@ -32548,7 +32512,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.456750893647047</v>
+        <v>1.473429450508106</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.371951354875334</v>
@@ -32637,7 +32601,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.476417640828916</v>
+        <v>1.493357674336188</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.323456395926439</v>
@@ -32726,7 +32690,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.461580298908356</v>
+        <v>1.473300389623526</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.345775218656794</v>
@@ -32815,7 +32779,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.458160485355077</v>
+        <v>1.475047951275974</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.368992340652016</v>
@@ -32904,7 +32868,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.501135043508129</v>
+        <v>1.517412960899884</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.445666370627271</v>
@@ -32993,7 +32957,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.529299314174639</v>
+        <v>1.543632426381799</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.250232386356781</v>
